--- a/文档/dataframe_design.xlsx
+++ b/文档/dataframe_design.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0984B40-0BC7-4CF1-8B8F-FA2D4D0AD57C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="5250" windowWidth="19035" windowHeight="8325" xr2:uid="{F48DB557-3957-40BE-B5CD-68E39BF7BF8C}"/>
+    <workbookView xWindow="2070" yWindow="1515" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="宏观数据" sheetId="7" r:id="rId1"/>
@@ -22,8 +21,9 @@
     <sheet name="期权数据表" sheetId="5" r:id="rId7"/>
     <sheet name="期权信息表" sheetId="6" r:id="rId8"/>
     <sheet name="50ETF" sheetId="9" r:id="rId9"/>
+    <sheet name="BETA" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="203">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,10 +519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EST_GROWTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5年营业收入增长率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,14 +527,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总股本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,7 +683,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未能获取</t>
+    <t>待计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓量变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI_CHG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式类似股票数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUTUREINFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTIONINFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH510050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子8 - 因子519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F8 - F519</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -703,18 +743,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待添加</t>
+    <t>今天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测因子6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测因子7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EST_F6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EST_F7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测收益率2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EST_R_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：MARKET 储存Rf，Rm和市场因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：ESTSTK  储存当天生成的各种预测备查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式：交易所+号码 SZ000001  储存股票历史日线数据，包括风格因子和预测增长率、波动率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测增长率2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测波动率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EST_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EST_V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCKINFO 储存股票分类和发行日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上市日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRSTDATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -732,7 +856,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,12 +866,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,17 +884,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1092,134 +1216,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC581487-266F-424B-BDE7-6DAC9A33E203}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>88</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>87</v>
       </c>
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="4">
+        <v>43102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1638CAF-AA49-4023-8890-FA724BD9BEB3}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>89</v>
       </c>
-      <c r="B1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" t="s">
         <v>91</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>92</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>93</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>94</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>95</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="J2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" t="s">
         <v>98</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>99</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>101</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>102</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>103</v>
       </c>
+      <c r="J3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B40BE39-24B8-4F28-9F61-9D8CE981D164}">
-  <dimension ref="A1:AN3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AJ11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1228,338 +1431,362 @@
     <col min="23" max="23" width="18.125" customWidth="1"/>
     <col min="24" max="25" width="14.125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" t="s">
         <v>152</v>
       </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" t="s">
+        <v>111</v>
+      </c>
+      <c r="W2" t="s">
+        <v>156</v>
+      </c>
+      <c r="X2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" t="s">
+        <v>112</v>
+      </c>
+      <c r="W3" t="s">
+        <v>155</v>
+      </c>
+      <c r="X3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="O1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>129</v>
-      </c>
-      <c r="R1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="AM3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" t="s">
         <v>159</v>
       </c>
-      <c r="X1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>112</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="K4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" t="s">
         <v>158</v>
       </c>
-      <c r="X2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB2" s="2" t="s">
+      <c r="P4" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R4" t="s">
+        <v>158</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" t="s">
+        <v>158</v>
+      </c>
+      <c r="W4" t="s">
         <v>157</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L3" t="s">
-        <v>161</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="X4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="R3" t="s">
-        <v>161</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" t="s">
-        <v>161</v>
-      </c>
-      <c r="W3" t="s">
-        <v>160</v>
-      </c>
-      <c r="X3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" t="s">
-        <v>171</v>
-      </c>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AH3:AM3"/>
+  <mergeCells count="3">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AL4:AQ4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1568,47 +1795,58 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67088A16-0A50-4B63-9268-6C1550F3C3BB}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>131</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>132</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" t="s">
-        <v>136</v>
+      <c r="F3" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1618,176 +1856,216 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1348F5-D009-42C1-9BB9-9E136DD7D5ED}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N2" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" t="s">
-        <v>140</v>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6DFD3E-6360-4AC3-87F5-6976125A6B93}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1798,160 +2076,165 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA79606C-AADB-4BC6-A88A-FDAB42FFF82E}">
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" t="s">
-        <v>143</v>
-      </c>
-      <c r="T1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U1" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M3" t="s">
         <v>60</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N3" t="s">
         <v>74</v>
       </c>
-      <c r="M2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" t="s">
-        <v>144</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="O3" t="s">
         <v>75</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P3" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q3" t="s">
         <v>77</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R3" t="s">
         <v>78</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S3" t="s">
         <v>79</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T3" t="s">
         <v>80</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N3" t="s">
-        <v>140</v>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1961,11 +2244,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B558767B-4CA8-4FE7-87BB-36FB6E4977D0}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1974,31 +2257,42 @@
     <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>104</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>105</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2009,34 +2303,37 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93865B61-BEDB-4795-AAA7-5A0AC5D1A64A}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
